--- a/biology/Botanique/Hypertufa/Hypertufa.xlsx
+++ b/biology/Botanique/Hypertufa/Hypertufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypertufa est le nom donné au matériau résultant du mélange de ciment, de sable, de gravier et de tourbe blonde (ou de sphaigne).
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'invention de l'hypertufa remonte au XIXe siècle. Ce matériau était surtout à la mode dans les pays anglo-saxons. Son nom est à rapprocher du tuf, roche volcanique et légère avec laquelle on réalisait les auges et autres ornements dans les jardins. Mais techniquement il faudrait le rapprocher du tuf calcaire ou travertin, d'origine elle sédimentaire en fait. En effet le Tuf est un type de roche à structure vacuolaire pouvant avoir deux origines : le tuf volcanique , et le tuf calcaire ou travertin ( Tufière ).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypertufa est un matériau relativement léger (du fait de sa composition) et poreux mais qui résiste bien au gel (suivant la préparation utilisée pour sa conception, jusqu"à -30 °C).
 Toutefois, il vaut mieux  prendre quelques précautions afin de le préserver de l'humidité, en posant l'objet sur un socle ou des pieds afin d'éviter que celui-ci n'ait "les pieds dans l'eau".
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce matériau est utilisé principalement pour réaliser des auges et autres récipients en "fausse pierre" ou "pierre reconstituée" que ce soit pour le jardin ou pour l'horticulture.
 À noter[style à revoir] que l'on s'en sert aussi pour réaliser de fausses roches et rochers dans les bassins d'agrément…
@@ -607,7 +625,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1,5 parts de tourbe tamisée + 1,5 parts de perlite + 1 part de ciment. (La perlite remplace le gravier pour alléger le produit fini)
 1,5 parts de tourbe tamisée + 1,5 parts de sable blanc + 1 part de ciment.
